--- a/testcases/testmatrix.xlsx
+++ b/testcases/testmatrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cytex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cytex\Desktop\final\2yrProject\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="143">
   <si>
     <t>Test Case No</t>
   </si>
@@ -282,13 +282,184 @@
   </si>
   <si>
     <t xml:space="preserve">still takes train fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete player </t>
+  </si>
+  <si>
+    <t>delete craig hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player deleted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 atk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat must be under 10 </t>
+  </si>
+  <si>
+    <t>400 attk</t>
+  </si>
+  <si>
+    <t>401 mid</t>
+  </si>
+  <si>
+    <t>402 def</t>
+  </si>
+  <si>
+    <t>403 gk</t>
+  </si>
+  <si>
+    <t>edit player  playerdb</t>
+  </si>
+  <si>
+    <t>edit player playerdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 health </t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>400 mid</t>
+  </si>
+  <si>
+    <t>400 def</t>
+  </si>
+  <si>
+    <t>400 gk</t>
+  </si>
+  <si>
+    <t>change name  to phillip</t>
+  </si>
+  <si>
+    <t>change name  hearts</t>
+  </si>
+  <si>
+    <t>change team name to name that exists</t>
+  </si>
+  <si>
+    <t>change name to everton</t>
+  </si>
+  <si>
+    <t>sorry team already exists</t>
+  </si>
+  <si>
+    <t>add player</t>
+  </si>
+  <si>
+    <t>add bing</t>
+  </si>
+  <si>
+    <t>player bing has been added</t>
+  </si>
+  <si>
+    <t>assign team to user</t>
+  </si>
+  <si>
+    <t>assign everton to user 1</t>
+  </si>
+  <si>
+    <t>Team Everton has been updated</t>
+  </si>
+  <si>
+    <t>assign team to same user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry user already has team </t>
+  </si>
+  <si>
+    <t>Team Manchester United has been updated</t>
+  </si>
+  <si>
+    <t>assign manchester to user1</t>
+  </si>
+  <si>
+    <t>add user</t>
+  </si>
+  <si>
+    <t>add bing as admin</t>
+  </si>
+  <si>
+    <t>Admin bing has been registered</t>
+  </si>
+  <si>
+    <t>add same user</t>
+  </si>
+  <si>
+    <t>username taken</t>
+  </si>
+  <si>
+    <t>update password</t>
+  </si>
+  <si>
+    <t>change password to pass</t>
+  </si>
+  <si>
+    <t>userbing has been updated</t>
+  </si>
+  <si>
+    <t>change name</t>
+  </si>
+  <si>
+    <t>name bing changed to graham</t>
+  </si>
+  <si>
+    <t>change name to same</t>
+  </si>
+  <si>
+    <t>name bing changed to admin</t>
+  </si>
+  <si>
+    <t>[PersistenceException: Unique expecting 0 or 1 rows but got [2]]</t>
+  </si>
+  <si>
+    <t>userbings has been updated</t>
+  </si>
+  <si>
+    <t>delete user</t>
+  </si>
+  <si>
+    <t>delete user bing</t>
+  </si>
+  <si>
+    <t>user deleted no flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user deleted no flash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add team </t>
+  </si>
+  <si>
+    <t>add team everton</t>
+  </si>
+  <si>
+    <t>team name already in use</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Team no has been created</t>
+  </si>
+  <si>
+    <t>Generate fixtures uneven teams</t>
+  </si>
+  <si>
+    <t>generate fixuters with uneven teams</t>
+  </si>
+  <si>
+    <t>Odd number of teams please add a team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +489,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C763D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF730000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -408,11 +591,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6E9C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6E9C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD6E9C6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD6E9C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -436,6 +645,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1545,418 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases/testmatrix.xlsx
+++ b/testcases/testmatrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>Test Case No</t>
   </si>
@@ -80,9 +80,6 @@
     <t>sell player</t>
   </si>
   <si>
-    <t>Submit team</t>
-  </si>
-  <si>
     <t>Generate fixtures</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>displays all position striker players</t>
   </si>
   <si>
-    <t>set player none</t>
-  </si>
-  <si>
     <t>set player goalKeeper</t>
   </si>
   <si>
@@ -239,12 +233,6 @@
     <t>Login success</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t xml:space="preserve">blank </t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>admin login required</t>
-  </si>
-  <si>
     <t>0 points</t>
   </si>
   <si>
@@ -281,9 +266,6 @@
     <t>Sorry could not train player this time please try again</t>
   </si>
   <si>
-    <t xml:space="preserve">still takes train fail </t>
-  </si>
-  <si>
     <t xml:space="preserve">delete player </t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t xml:space="preserve">stat must be under 10 </t>
   </si>
   <si>
-    <t>400 attk</t>
-  </si>
-  <si>
     <t>401 mid</t>
   </si>
   <si>
@@ -320,18 +299,6 @@
     <t xml:space="preserve">400 health </t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>400 mid</t>
-  </si>
-  <si>
-    <t>400 def</t>
-  </si>
-  <si>
-    <t>400 gk</t>
-  </si>
-  <si>
     <t>change name  to phillip</t>
   </si>
   <si>
@@ -413,9 +380,6 @@
     <t>name bing changed to admin</t>
   </si>
   <si>
-    <t>[PersistenceException: Unique expecting 0 or 1 rows but got [2]]</t>
-  </si>
-  <si>
     <t>userbings has been updated</t>
   </si>
   <si>
@@ -453,13 +417,76 @@
   </si>
   <si>
     <t>Odd number of teams please add a team</t>
+  </si>
+  <si>
+    <t>teamSelected</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>5*defenders</t>
+  </si>
+  <si>
+    <t>5*midfield</t>
+  </si>
+  <si>
+    <t>2*goalkeepers</t>
+  </si>
+  <si>
+    <t>3*attackers</t>
+  </si>
+  <si>
+    <t>set player not assigned</t>
+  </si>
+  <si>
+    <t>1*goalkeeper</t>
+  </si>
+  <si>
+    <t>1*midfield</t>
+  </si>
+  <si>
+    <t>1*striker</t>
+  </si>
+  <si>
+    <t>1*notassigned</t>
+  </si>
+  <si>
+    <t>buy player from transfer market</t>
+  </si>
+  <si>
+    <t>stat must be under 11</t>
+  </si>
+  <si>
+    <t>stat must be under 12</t>
+  </si>
+  <si>
+    <t>stat must be under 13</t>
+  </si>
+  <si>
+    <t>stat must be under 14</t>
+  </si>
+  <si>
+    <t>stat must be under 15</t>
+  </si>
+  <si>
+    <t>injured player assigned to team</t>
+  </si>
+  <si>
+    <t>assign player to goalkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player is injured cant assign to team </t>
+  </si>
+  <si>
+    <t>Player has changed position to Goalkeeper!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,12 +521,6 @@
       <color rgb="FF3C763D"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF730000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -650,7 +671,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -934,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,16 +997,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -997,16 +1017,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,16 +1037,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,19 +1054,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,16 +1077,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,16 +1097,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,31 +1117,34 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,16 +1152,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,14 +1174,17 @@
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,14 +1194,17 @@
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,14 +1214,17 @@
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,14 +1234,17 @@
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,16 +1252,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,16 +1272,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1248,16 +1292,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,16 +1312,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,14 +1334,17 @@
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,10 +1355,13 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,19 +1369,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,19 +1389,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,16 +1409,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,16 +1426,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,16 +1443,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,16 +1460,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,16 +1477,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,16 +1494,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,13 +1511,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,13 +1528,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,13 +1545,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,465 +1562,504 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
       <c r="B34" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>38</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>40</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>41</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>42</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>43</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>44</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>45</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B53" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>46</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D53" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
-        <v>47</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="E53" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="C54" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
-        <v>48</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="D54" t="s">
         <v>125</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>52</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" t="s">
-        <v>69</v>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/testmatrix.xlsx
+++ b/testcases/testmatrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="155">
   <si>
     <t>Test Case No</t>
   </si>
@@ -233,12 +233,6 @@
     <t>Login success</t>
   </si>
   <si>
-    <t xml:space="preserve">blank </t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>bankaccount is too much</t>
   </si>
   <si>
@@ -476,10 +470,25 @@
     <t>assign player to goalkeeper</t>
   </si>
   <si>
-    <t xml:space="preserve">player is injured cant assign to team </t>
-  </si>
-  <si>
-    <t>Player has changed position to Goalkeeper!</t>
+    <t>train deducts health</t>
+  </si>
+  <si>
+    <t>train player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player not assigned to position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">health goes down </t>
+  </si>
+  <si>
+    <t>play match increases health</t>
+  </si>
+  <si>
+    <t>play match</t>
+  </si>
+  <si>
+    <t>health goes up to max ten</t>
   </si>
 </sst>
 </file>
@@ -954,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1132,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1135,16 +1144,16 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,7 +1164,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1175,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1195,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -1215,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -1235,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1255,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1275,7 +1284,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -1295,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
@@ -1312,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
@@ -1335,13 +1344,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>67</v>
@@ -1361,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,10 +1472,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>67</v>
@@ -1500,7 +1509,7 @@
         <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -1587,16 +1596,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -1607,16 +1616,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>67</v>
@@ -1627,16 +1636,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
@@ -1647,16 +1656,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>67</v>
@@ -1667,16 +1676,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
         <v>67</v>
@@ -1687,16 +1696,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
         <v>67</v>
@@ -1707,16 +1716,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
         <v>67</v>
@@ -1727,19 +1736,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>51</v>
@@ -1770,7 +1779,7 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
@@ -1787,13 +1796,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>51</v>
@@ -1807,16 +1816,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>67</v>
@@ -1827,16 +1836,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>67</v>
@@ -1847,16 +1856,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="F47" t="s">
         <v>67</v>
@@ -1867,16 +1876,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
         <v>67</v>
@@ -1887,16 +1896,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>67</v>
@@ -1907,16 +1916,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
         <v>67</v>
@@ -1927,16 +1936,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
         <v>67</v>
@@ -1947,16 +1956,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
         <v>67</v>
@@ -1967,16 +1976,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="F53" t="s">
         <v>67</v>
@@ -1987,16 +1996,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
       <c r="E54" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
         <v>67</v>
@@ -2007,16 +2016,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F55" t="s">
         <v>67</v>
@@ -2027,39 +2036,79 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
         <v>128</v>
       </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
       <c r="E56" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="114" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
         <v>151</v>
       </c>
-      <c r="F57" t="s">
-        <v>70</v>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
